--- a/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.92</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.70</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>62.73</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.94</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>62.73</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.94</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,1388 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2871,4 +2872,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2880,7 +2881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2891,17 +2892,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2911,14 +2932,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.89</v>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2927,14 +2970,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.33</v>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4335</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2943,14 +3008,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2959,13 +3046,831 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3769,7 +3770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3780,17 +3781,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3800,14 +3821,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.42</v>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3816,14 +3859,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.89</v>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3832,14 +3897,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.33</v>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3848,14 +3935,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="6">
@@ -3864,13 +4073,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3978,7 +3979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3989,17 +3990,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4009,14 +4030,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5</v>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4025,14 +4068,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.42</v>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4041,14 +4106,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.89</v>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4057,14 +4144,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.33</v>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4073,14 +4182,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4089,13 +4220,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002585-双星新材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3.42</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>5.89</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>2.33</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,6 +617,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,7 +1542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2131,7 +2430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3515,7 +3814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4331,7 +4630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4463,7 +4762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
